--- a/public/assets/excel/formed/ownerclan_2010022418_20231119145641.xlsx
+++ b/public/assets/excel/formed/ownerclan_2010022418_20231119145641.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\projects\sellwing\public\assets\excel\formed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5441F-0BDD-4938-B011-1C82912A7EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="등록수정양식" sheetId="1" r:id="rId4"/>
-    <sheet name="예제" sheetId="2" r:id="rId5"/>
+    <sheet name="등록수정양식" sheetId="1" r:id="rId1"/>
+    <sheet name="예제" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="174">
   <si>
     <t>상품코드</t>
   </si>
@@ -176,13 +181,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 오너클랜 카테고리 파일을 다운받아 원하는 카테고리의 코드를 입력해주세요. 카테고리 파일에 없는 코드는 등록이 불가합니다.
 2. 상품과 등록 카테고리가 일치하지 않는 경우 오너클랜 관리자에 의해 카테고리가 강제 이동되거나 판매가 제한될 수 있습니다.
@@ -190,15 +191,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력예시 :
 50000226</t>
     </r>
   </si>
@@ -209,13 +207,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 상품별로 오픈마켓 카테고리를 지정하여 등록하실 수 있습니다.
 2. 오픈마켓 카테고리 등록을 위해서 마켓코드와 마켓카테고리 코드를 입력해주세요. 
@@ -232,28 +226,22 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 AUCTION,01700200
 GMARKET,300026370</t>
     </r>
@@ -261,13 +249,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 전용상품 : 전용상품 등록 권한이 부여된 일부 공급사만 전용상품 그룹 확인 및 상품 등록이 가능합니다.
 2. 오너클랜 일반 등록이 아닌 전용상품 등록의 경우 전용상품 코드를 입력 주세요. 미입력 or 잘못된 코드입력 시 일반상품으로 등록됩니다. (SCM &gt; 업체정보관리 &gt; 업체관리 정보에서 전용상품 코드 확인 가능)
@@ -275,41 +259,31 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 RW**</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 오너클랜에 노출되는 상품명으로 최대 50byte(한글 2byte, 영문/숫자/특수기호/공백 1byte 기준)까지 입력 가능합니다. 
 2.  앞쪽에 상품과 직접적인 연관이 있는 소재, 구성, 색상, 수량, 연령, 키워드 등을 배치해 주세요. 상품과 직접적인 연관이 없는 키워드와 수식어는 노출에 도움이 되지 않습니다.
@@ -321,15 +295,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 20대 봄 쉬폰 꽃무늬 여성 원피스 
    - 앞쪽에 상품과 직접적인 연관이 있는 소재, 구성, 색상, 수량, 연령, 키워드 등 배치
 * 잘못된 입력 예시 :
@@ -340,37 +311,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">공급사 내부 관리용으로 택배송장시 출력되는 상품명으로 최대 200byte(한글 2byte, 영문/콤마/공백 1byte 기준)까지 입력 가능합니다. 
 2. 판매자는 확인 불가하며, 최종 소비자만 확인 가능합니다.
@@ -378,13 +338,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 :
@@ -394,69 +351,53 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">1. 콤마(,)기준 최소3개 최대20개까지 입력 가능하며, 1개의 키워드 당 10글자(한글 2byte 기준)까지 입력 가능합니다. 
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1. 콤마(,)기준 최소3개 최대20개까지 입력 가능하며, 1개의 키워드 당 10글자(한글 2byte 기준)까지 입력 가능합니다. 
 2. 시즌,소재,성별,사이즈,색상과 조합된 키워드를 추천하며, 등록하려는 상품과 직접적인 연관이 없는 키워드와 수식어는 추천하지 않습니다.
 3. 띄어쓰기, 일부 키워드, 콤마를 제외한 특수문자는 제한됩니다.
 4. 각종 법률에 위반되는 금지어는 사용이 불가하며, 등록 상품과 관련없는 키워드 및 유명상표 유사문구, 스팸성 키워드를 입력하시면 등록 오류가 생기거나 오너클랜 관리자에의해 노출이 제한될 수 있습니다.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="single"/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="single"/>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 원피스,봄원피스,여신원피스,여성원피스,빅사이즈원피스,나시원피스,레이스원피스,흰색원피스</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반드시 상품대량등록 페이지의 오너클랜 원산지 검색 후 원산지 복사를하여 붙여 넣어주세요.(대량등록페이지 원산지 복사 버튼 클릭 &gt; 등록 엑셀에 붙여넣기)
 2. 원산지가 2개 이상인 경우 1개만 선택 후 상품 상세 정보에 기입해주세요.
@@ -464,53 +405,40 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 국내|강원|고성군</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">1. 미입력 시 오너클랜 노출도에 많은 영향을 줄 수 있습니다.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1. 미입력 시 오너클랜 노출도에 많은 영향을 줄 수 있습니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 :
@@ -520,13 +448,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 가전제품의 경우 필수사항 입니다.
    • 대카테고리 컴퓨터, 디지털가전/게임, 영상/음향/생활가전, 핸드폰 카테고리는 필수사항
@@ -535,13 +459,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 :
@@ -551,13 +472,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 오너클랜에 상품을 공급하는 금액으로 정산받길 원하는 금액을 VAT포함하여 숫자만 입력해주세요.(특수기호 불가)
 2. 공급사 상품등록 수수료는 없으나 판매사에게는 오너클랜 마진을 더하여 노출됩니다. 
@@ -567,40 +484,30 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 10000</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">1. '자율' or '준수'로 입력해 주세요.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1. '자율' or '준수'로 입력해 주세요.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 ※ 가격 자율 상품은 가격 준수 상품으로 변경이 불가합니다.
@@ -608,13 +515,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">2. 오너클랜 판매 유형
    • 자율(가격자율) : 판매사가 원하는 금액에 마켓에 판매 가능한 상품입니다.
@@ -629,13 +532,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 :
@@ -645,13 +545,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 판매유형 '준수' 입력 시 필수 항목이며, 미입력 시 등록이 불가합니다.
 2. 판매유형 '자율' 입력 시 본 항목에 입력을 해도 데이터는 반영되지 않습니다.
@@ -660,13 +556,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 :
@@ -676,15 +569,11 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">1. '과세' or '면세'로 입력해 주세요.
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1. '과세' or '면세'로 입력해 주세요.
 2. '과세', '면세' 구분
   • 과세 : 원재료에 조미료 등 다른 첨가물을 넣거나 불을 가열하여 본연의 성질이 변하는 정도의 가공을 거친 것은 부가가치세가 과세됩니다.
   • 면세 : 과세와는 달리 미가공 된 것으로서 잘게 썰거나 분쇄하는 등
@@ -692,26 +581,19 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 3. '과세', '면세' 종류
@@ -727,28 +609,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 과세</t>
     </r>
   </si>
@@ -759,15 +634,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 옵션명 1개 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 옵션명 1개 예시 :
 색상
 * 옵션명 2개 예시 :
 색상,사이즈</t>
@@ -785,15 +657,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 선택형1 옵션 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 선택형1 옵션 입력 예시 :
 빨강
 빨강
 노랑
@@ -801,28 +670,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 선택형2 옵션 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 선택형2 옵션 입력 예시 :
 빨강,230
 빨강,235
 노랑,230
@@ -848,13 +710,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">* 옵션값이 4줄의 경우 입력 예시 :
 1000
@@ -867,13 +726,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 재고, 관리자코드1, 관리자코드2 항목을 옵션값, 옵션가격에 해당하는 줄에 입력하셔야 합니다. 줄바꿈(Alt+Enter)하여 입력해 주세요. 
 2. 옵션 미사용 시(단일 상품)의 경우는 한줄로 입력하시면 됩니다. 
@@ -885,25 +740,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">   - (주의!) 재고 수량 입력 시, 판매되는 만큼 재고가 자동으로 줄어듭니다. 재고가 0일경우, 자동으로 품절처리되어 매출에 피해가 발생할 수 있으니 유의해서 등록하시기 바랍니다.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
   • 품절 : 0을 입력해 주세요.
@@ -912,25 +759,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve"> (주의!) 단종 상품은 판매 상태로 되돌릴 수 없습니다.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 4. 공급사관리코드(선택)
@@ -941,13 +780,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">* 옵션 미사용(단일 상품) :
 9999,도매허브,샤랄라0321
@@ -962,13 +798,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반드시 사용하고있는 이미지호스팅 서버에 등록된 이미지 URL를 입력해주세요.
 2. 최소 600*600px로 등록해야하며, 1000*1000px을 권장합니다.
@@ -982,13 +814,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">* 입력 예시 : 
 http://image.hplusmall.com/ownerclan_200.jpg
@@ -996,52 +825,37 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">8. 대표이미지에 텍스트 사용은 금지입니다.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>8. 대표이미지에 텍스트 사용은 금지입니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">자세한 기준은 (https://cafe.naver.com/wangdome123/65019)에서 확인해 주세요.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>자세한 기준은 (https://cafe.naver.com/wangdome123/65019)에서 확인해 주세요.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반드시 사용하고있는 이미지호스팅 서버에 등록된 이미지 URL를 입력해주세요.
 2. 최소 300*300px로 등록해야하며, 1000*1000px을 권장합니다.
@@ -1055,13 +869,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">* 입력 예시 : 
 추가이미지1.jpg, 추가이미지2.jpg
@@ -1071,13 +882,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반드시 사용하고있는 이미지호스팅 서버에 등록된 이미지 URL를 입력해주세요.
 2. 상품 상세 이미지 경로에는 영문 파일명 입력을 권장합니다. 한글 파일명은 마켓 등에서 정상 처리되지 않을 수 있습니다. 
@@ -1087,28 +894,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 &lt;p align="center"&gt;&lt;img src="상품상세 이미지 경로"&gt;&lt;/p&gt;</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 텍스트로 '가능', '불가'를 입력해 주세요.
 2.  미성년자 판매 금지 상품은 아니나 상세페이지내에 이미지가 있어도 미성년자 판매 상품으로 간주합니다.
@@ -1127,28 +927,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 가능</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 아래의 보기를 확인하시고 텍스트로 1개만 입력해 주세요.
 2. 배송방식 
@@ -1161,13 +954,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 : 
@@ -1177,13 +967,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 숫자만 입력해 주세요.
 2. 배송방식이 '무료' or '착불'의 경우는 0을 입력해주세요.
@@ -1192,28 +978,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 2500</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 숫자만 입력해 주세요.
 2.  '착불'의 경우는 0을 입력해주세요. 상세페이지에는 '공급사 문의'로 노출됩니다.
@@ -1225,28 +1004,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 2500</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 숫자만 입력해 주세요.
 2. 묶음배송(1BOX 묶음배송 최대 수량) 미입력시 무제한으로 인식되어 기본 배송비만 부과됩니다. 추후 배송비 손해 및 추가 입금 요청으로 공급사 및 판매사의 업무가 지연될 수 있으니 입력을 권장합니다.
@@ -1261,28 +1033,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 100</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반품 불가 시 불가 사유를 입력해 주세요. 최대 250byte(한글 2byte, 영문/숫자/공백 1byte 기준)까지 입력 가능하며, 특수기호는 입력 불가합니다. 
 2. 반품 불가에서 반품 가능만 수정 가능합니다. 반품 불가 상품에서 반품 가능 상품으로 변경 시 해당 항목을 삭제해주세요.
@@ -1291,13 +1056,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 : 
@@ -1307,13 +1069,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반드시 상품대량등록 페이지의 반품지 코드 복사 기능을 이용해서 복사된 코드를 입력해 주세요.
 2. 반품 주소지가 가입시 사업장 주소 혹은 기본 주소라면 공백으로 비워 두시면 됩니다.
@@ -1322,28 +1080,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 63</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반품접수 유형에 따른 값을 번호로 입력해 주세요.
 2. 반품접수 유형 설명
@@ -1353,28 +1104,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 1</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 관련 법에 따라 KC 인증 대상 상품은 필수적으로 인증정보를 제공해야 하며, 인증번호 정보 미제공 및 허위사실 입력 시 법적인 모든 책임은 공급사에 있습니다. 안전인증정보 관련은 ‘제품안전정보센터’ 홈페이지(http://safetykorea.kr)에서 확인해 주세요.
 2. 입력한 인증정보는 '제품안전정보센터'에서 제공된 정보를 기준으로 처리되며, 정상적인 인증정보임에도 등록 불가 시 '제품안전정보센터'로 문의 바랍니다.
@@ -1405,15 +1149,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 9,EK-5245-F
 12,99</t>
     </r>
@@ -1421,13 +1162,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반드시 사용하고있는 이미지호스팅 서버에 등록된 이미지 URL를 입력해주세요. 여러 서류 첨부의 경우 줄바꿈하여 새로운 정보를 입력합니다.
 2. 이미지 경로에는 영문 파일명 입력을 권장합니다. 한글 파일명은 마켓 등에서 정상 처리되지 않을 수 있습니다. 
@@ -1440,13 +1177,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 : 
@@ -1467,15 +1201,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 1</t>
     </r>
   </si>
@@ -1491,15 +1222,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 : 
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 : 
 상품 상세정보에 별도 표기
 상품 상세정보에 별도 표기
 상품 상세정보에 별도 표기
@@ -1519,13 +1247,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 의료기기 여부 혹은 건강기능식품 여부를 입력해주세요.
 2. 설명
@@ -1535,13 +1259,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">※(주의!) 의료기기 상품을 의료기기로 등록하지 않고 공급하시어
         판매자 피해가 발생할 경우 책임은 공급사에게 있습니다.
@@ -1549,13 +1269,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
   • [2]건강기능식품 : 건강기능식품에 해당하는 상품일 경우 [2] 입력
@@ -1563,13 +1279,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">     ※(주의!) 건강기능식품을  건강기능식품으로 등록하지 않고 공급하시어
         판매자 피해가 발생할 경우 책임은 공급사에게 있습니다. 
@@ -1577,28 +1289,21 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 0</t>
     </r>
   </si>
@@ -1610,15 +1315,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">* 입력 예시 :
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>* 입력 예시 :
 63</t>
     </r>
   </si>
@@ -1688,38 +1390,27 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">1. '자율' or '준수'로 입력해 주세요.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1. '자율' or '준수'로 입력해 주세요.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">2. 오너클랜 판매 유형
    • 자율(가격자율) : 판매사가 원하는 금액에 마켓에 판매 가능한 상품입니다.
@@ -1732,38 +1423,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">※ 가격에 매우 민감한 상품은 오너클랜 영업팀으로 연락 부탁드립니다.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>※ 가격에 매우 민감한 상품은 오너클랜 영업팀으로 연락 부탁드립니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 :
@@ -1773,13 +1453,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 재고, 관리자코드1, 관리자코드2 항목을 옵션값, 옵션가격에 해당하는 줄에 입력하셔야 합니다. 줄바꿈(Alt+Enter)하여 입력해 주세요. 
 2. 옵션 미사용 시(단일 상품)의 경우는 한줄로 입력하시면 됩니다. 
@@ -1791,25 +1467,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">   - (주의!) 재고 수량 입력 시, 판매되는 만큼 재고가 자동으로 줄어듭니다. 재고가 0일경우, 자동으로 품절처리되어 매출에 피해가 발생할 수 있으니 유의해서 등록하시기 바랍니다.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
   • 품절 : 0을 입력해 주세요.
@@ -1822,13 +1490,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">* 옵션 미사용(단일 상품) :
 9999,도매허브,샤랄라0321
@@ -1843,13 +1508,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반드시 사용하고있는 이미지호스팅 서버에 등록된 이미지 URL를 입력해주세요.
 2. 최소 300*300px로 등록해야하며, 1000*1000px을 권장합니다.
@@ -1863,13 +1524,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">* 입력 예시 : 
 http://image.hplusmall.com/ownerclan_200.jpg
@@ -1879,13 +1537,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 반드시 사용하고있는 이미지호스팅 서버에 등록된 이미지 URL를 입력해주세요.
 2. 최소 300*300px로 등록해야하며, 1000*1000px을 권장합니다.
@@ -1899,13 +1553,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">* 입력 예시 : 
 추가이미지1.jpg, 추가이미지2.jpg
@@ -1915,13 +1566,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">1. 아래의 보기를 확인하시고 텍스트로 1개만 입력해 주세요.
 2. 배송방식 
@@ -1936,13 +1583,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF00B0F0"/>
-        <sz val="9"/>
-        <u val="none"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
       </rPr>
       <t xml:space="preserve">
 * 입력 예시 : 
@@ -2237,79 +1881,94 @@
 상품 상세정보에 별도 표기
 상품 상세정보에 별도 표기</t>
   </si>
+  <si>
+    <t>https://www.sellwing.kr/images/product/6559ab6401908.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="13">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2363,117 +2022,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2797,22 +2467,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="J1">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="26.25" defaultColWidth="61.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="61.85546875" defaultRowHeight="26.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="61.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" customHeight="1" ht="42" s="2" customFormat="1">
+    <row r="1" spans="1:40" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2934,7 +2601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" customHeight="1" ht="42" s="7" customFormat="1">
+    <row r="2" spans="1:40" s="7" customFormat="1" ht="42" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
@@ -3056,7 +2723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:40" customHeight="1" ht="409.5" s="3" customFormat="1">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="409.5" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -3178,14 +2845,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:40" ht="12.75">
       <c r="B4">
         <v>50003310</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>88</v>
       </c>
@@ -3201,27 +2864,21 @@
       <c r="J4" t="s">
         <v>91</v>
       </c>
-      <c r="K4"/>
       <c r="L4">
         <v>2136</v>
       </c>
       <c r="M4" t="s">
         <v>92</v>
       </c>
-      <c r="N4"/>
       <c r="O4" t="s">
         <v>93</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
       <c r="S4" t="s">
         <v>94</v>
       </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4"/>
+      <c r="T4" s="35" t="s">
+        <v>173</v>
+      </c>
       <c r="V4" t="s">
         <v>95</v>
       </c>
@@ -3237,16 +2894,12 @@
       <c r="Z4">
         <v>3000</v>
       </c>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
       <c r="AD4">
         <v>1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AF4"/>
       <c r="AG4">
         <v>35</v>
       </c>
@@ -3256,83 +2909,39 @@
       <c r="AI4">
         <v>0</v>
       </c>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <hyperlinks>
+    <hyperlink ref="T4" r:id="rId1" xr:uid="{6FD5D6CA-7E11-41F9-A84C-7BCD6C76D512}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="26.25" defaultColWidth="61.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="61.85546875" defaultRowHeight="26.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" style="14"/>
-    <col min="2" max="2" width="61.85546875" style="14"/>
-    <col min="3" max="3" width="61.85546875" style="14"/>
+    <col min="1" max="3" width="61.85546875" style="14"/>
     <col min="4" max="4" width="61.85546875" style="1"/>
-    <col min="5" max="5" width="61.85546875" style="14"/>
-    <col min="6" max="6" width="61.85546875" style="14"/>
-    <col min="7" max="7" width="61.85546875" style="14"/>
-    <col min="8" max="8" width="61.85546875" style="14"/>
-    <col min="9" max="9" width="61.85546875" style="14"/>
-    <col min="10" max="10" width="61.85546875" style="14"/>
-    <col min="11" max="11" width="61.85546875" style="14"/>
-    <col min="12" max="12" width="61.85546875" style="14"/>
-    <col min="13" max="13" width="61.85546875" style="14"/>
-    <col min="14" max="14" width="61.85546875" style="14"/>
-    <col min="15" max="15" width="61.85546875" style="14"/>
-    <col min="16" max="16" width="61.85546875" style="14"/>
-    <col min="17" max="17" width="61.85546875" style="14"/>
-    <col min="18" max="18" width="61.85546875" style="14"/>
-    <col min="19" max="19" width="61.85546875" style="14"/>
-    <col min="20" max="20" width="61.85546875" style="14"/>
+    <col min="5" max="20" width="61.85546875" style="14"/>
     <col min="21" max="21" width="61.85546875" style="1"/>
-    <col min="22" max="22" width="61.85546875" style="14"/>
-    <col min="23" max="23" width="61.85546875" style="14"/>
-    <col min="24" max="24" width="61.85546875" style="14"/>
-    <col min="25" max="25" width="61.85546875" style="14"/>
-    <col min="26" max="26" width="61.85546875" style="14"/>
-    <col min="27" max="27" width="61.85546875" style="14"/>
-    <col min="28" max="28" width="61.85546875" style="14"/>
-    <col min="29" max="29" width="61.85546875" style="14"/>
+    <col min="22" max="29" width="61.85546875" style="14"/>
     <col min="30" max="30" width="61.85546875" style="1"/>
-    <col min="31" max="31" width="61.85546875" style="14"/>
-    <col min="32" max="32" width="61.85546875" style="14"/>
-    <col min="33" max="33" width="61.85546875" style="14"/>
-    <col min="34" max="34" width="61.85546875" style="14"/>
-    <col min="35" max="35" width="61.85546875" style="14"/>
-    <col min="36" max="36" width="61.85546875" style="1"/>
-    <col min="37" max="37" width="61.85546875" style="1"/>
+    <col min="31" max="35" width="61.85546875" style="14"/>
+    <col min="36" max="37" width="61.85546875" style="1"/>
     <col min="38" max="38" width="61.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" customHeight="1" ht="42" s="2" customFormat="1">
+    <row r="1" spans="1:40" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3454,7 +3063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" customHeight="1" ht="42" s="7" customFormat="1">
+    <row r="2" spans="1:40" s="7" customFormat="1" ht="42" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
@@ -3576,7 +3185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:40" customHeight="1" ht="384" s="3" customFormat="1">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="384" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -3698,7 +3307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:40" customHeight="1" ht="26.25" s="17" customFormat="1">
+    <row r="4" spans="1:40" s="17" customFormat="1" ht="26.25" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="29">
         <v>50000226</v>
@@ -3795,7 +3404,7 @@
       <c r="AL4" s="15"/>
       <c r="AM4" s="15"/>
     </row>
-    <row r="5" spans="1:40" customHeight="1" ht="26.25" s="16" customFormat="1">
+    <row r="5" spans="1:40" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="29">
         <v>50000215</v>
@@ -3894,7 +3503,7 @@
       <c r="AL5" s="15"/>
       <c r="AM5" s="15"/>
     </row>
-    <row r="6" spans="1:40" customHeight="1" ht="53.25" s="16" customFormat="1">
+    <row r="6" spans="1:40" s="16" customFormat="1" ht="53.25" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="29">
         <v>50000216</v>
@@ -3993,7 +3602,7 @@
       <c r="AL6" s="15"/>
       <c r="AM6" s="15"/>
     </row>
-    <row r="7" spans="1:40" customHeight="1" ht="26.25" s="16" customFormat="1">
+    <row r="7" spans="1:40" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="29">
         <v>50000217</v>
@@ -4090,7 +3699,7 @@
       <c r="AL7" s="15"/>
       <c r="AM7" s="15"/>
     </row>
-    <row r="8" spans="1:40" customHeight="1" ht="26.25" s="16" customFormat="1">
+    <row r="8" spans="1:40" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="29">
         <v>50000218</v>
@@ -4189,7 +3798,7 @@
       <c r="AL8" s="15"/>
       <c r="AM8" s="15"/>
     </row>
-    <row r="9" spans="1:40" customHeight="1" ht="26.25" s="16" customFormat="1">
+    <row r="9" spans="1:40" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="29">
         <v>50000221</v>
@@ -4288,7 +3897,7 @@
       <c r="AL9" s="15"/>
       <c r="AM9" s="15"/>
     </row>
-    <row r="10" spans="1:40" customHeight="1" ht="26.25" s="16" customFormat="1">
+    <row r="10" spans="1:40" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="B10" s="29"/>
       <c r="D10" s="1"/>
       <c r="U10" s="1"/>
@@ -4299,7 +3908,7 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:40" customHeight="1" ht="26.25" s="16" customFormat="1">
+    <row r="11" spans="1:40" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="D11" s="1"/>
       <c r="U11" s="1"/>
       <c r="AD11" s="1"/>
@@ -4308,119 +3917,119 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="12" spans="1:40" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D12" s="1"/>
       <c r="U12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="13" spans="1:40" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D13" s="1"/>
       <c r="U13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="14" spans="1:40" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D14" s="1"/>
       <c r="U14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="15" spans="1:40" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D15" s="1"/>
       <c r="U15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="16" spans="1:40" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D16" s="1"/>
       <c r="U16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="17" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D17" s="1"/>
       <c r="U17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="18" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D18" s="1"/>
       <c r="U18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="19" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D19" s="1"/>
       <c r="U19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="20" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="U20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="21" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="U21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="22" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="U22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="23" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D23" s="1"/>
       <c r="U23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="24" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D24" s="1"/>
       <c r="U24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="25" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D25" s="1"/>
       <c r="U25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="26" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D26" s="1"/>
       <c r="U26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="27" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D27" s="1"/>
       <c r="U27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:40" customHeight="1" ht="26.25" s="15" customFormat="1">
+    <row r="28" spans="4:37" s="15" customFormat="1" ht="26.25" customHeight="1">
       <c r="D28" s="1"/>
       <c r="U28" s="1"/>
       <c r="AD28" s="1"/>
@@ -4429,21 +4038,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U4" r:id="rId_hyperlink_1"/>
-    <hyperlink ref="T5" r:id="rId_hyperlink_2"/>
-    <hyperlink ref="T6" r:id="rId_hyperlink_3"/>
+    <hyperlink ref="U4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="T5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="T6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId4ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>